--- a/spec/fixtures/files/models/import/sponsor_term_format_two/import_input_3.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_two/import_input_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ds/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_two/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3733D46-1637-EF4C-8832-5A23DC53B42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE98CAD-6808-C44A-9B43-282FB23AF834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39680" yWindow="2980" windowWidth="30560" windowHeight="13720" xr2:uid="{900AED1E-6BC2-45CE-A2E6-E0782566C640}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>XX4</t>
+  </si>
+  <si>
+    <t>Error CL</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>CL1</t>
+  </si>
+  <si>
+    <t>CL2</t>
+  </si>
+  <si>
+    <t>CL3</t>
+  </si>
+  <si>
+    <t>CL4</t>
+  </si>
+  <si>
+    <t>EEEEE</t>
   </si>
 </sst>
 </file>
@@ -547,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3824845-9A48-467E-BC3D-69967750395D}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,6 +945,134 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
